--- a/results/IndoorSpace texture confusion translation.xlsx
+++ b/results/IndoorSpace texture confusion translation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>avg * 1000</t>
+  </si>
+  <si>
+    <t>MIN Er</t>
+  </si>
+  <si>
+    <t>FM-2D</t>
+  </si>
+  <si>
+    <t>percent</t>
   </si>
 </sst>
 </file>
@@ -552,11 +567,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="430142000"/>
-        <c:axId val="430135728"/>
+        <c:axId val="224981352"/>
+        <c:axId val="224977824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="430142000"/>
+        <c:axId val="224981352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,7 +609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430135728"/>
+        <c:crossAx val="224977824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -602,7 +617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430135728"/>
+        <c:axId val="224977824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -648,7 +663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430142000"/>
+        <c:crossAx val="224981352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1549,11 +1564,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="430140824"/>
-        <c:axId val="430136512"/>
+        <c:axId val="224979000"/>
+        <c:axId val="224978216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430140824"/>
+        <c:axId val="224979000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,7 +1577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430136512"/>
+        <c:crossAx val="224978216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1570,7 +1585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430136512"/>
+        <c:axId val="224978216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1583,7 +1598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430140824"/>
+        <c:crossAx val="224979000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2030,11 +2045,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="430138864"/>
-        <c:axId val="430139256"/>
+        <c:axId val="224976256"/>
+        <c:axId val="224975864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="430138864"/>
+        <c:axId val="224976256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430139256"/>
+        <c:crossAx val="224975864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2080,7 +2095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430139256"/>
+        <c:axId val="224975864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2126,7 +2141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430138864"/>
+        <c:crossAx val="224976256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2181,7 +2196,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2220,16 +2235,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2249,7 +2264,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6819900" y="4591049"/>
+    <xdr:pos x="6096000" y="209549"/>
     <xdr:ext cx="6191249" cy="4676775"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2560,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,7 +3010,7 @@
         <v>1.35056</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3025,7 +3040,7 @@
         <v>2889.19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3055,7 +3070,7 @@
         <v>3310.65</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3085,7 +3100,7 @@
         <v>37.989199999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3115,7 +3130,7 @@
         <v>1.77868</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3145,7 +3160,7 @@
         <v>3.7232699999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3175,7 +3190,7 @@
         <v>12.0318</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3205,7 +3220,7 @@
         <v>5.0913700000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3235,7 +3250,7 @@
         <v>98.929900000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3265,7 +3280,7 @@
         <v>31.298500000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3295,7 +3310,7 @@
         <v>2.4148100000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3325,7 +3340,7 @@
         <v>6.3408199999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3355,7 +3370,7 @@
         <v>8.7090800000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3386,8 +3401,26 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3427,8 +3460,32 @@
         <f>MIN(G31:I31)</f>
         <v>0.46815361986646187</v>
       </c>
+      <c r="L31">
+        <f>MIN(C31:J31)</f>
+        <v>0.46815361986646187</v>
+      </c>
+      <c r="M31">
+        <f>IF($L31=C31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q46" si="2">IF($L31=D31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>IF($L31=J31,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>2</v>
@@ -3438,41 +3495,65 @@
         <v>2.39506</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:I33" si="2">C6/$B32</f>
+        <f t="shared" ref="C32:I33" si="3">C6/$B32</f>
         <v>0.57843227309545486</v>
       </c>
       <c r="D32">
+        <f t="shared" si="3"/>
+        <v>1.6104523477491171</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>0.56053293028149609</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.99162860220620785</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0.69569029585897646</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>1.1013878566716493</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0.5488422001954022</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J48" si="4">MIN(G32:I32)</f>
+        <v>0.5488422001954022</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L48" si="5">MIN(C32:J32)</f>
+        <v>0.5488422001954022</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:P48" si="6">IF($L32=C32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="2"/>
-        <v>1.6104523477491171</v>
-      </c>
-      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="2"/>
-        <v>0.56053293028149609</v>
-      </c>
-      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="2"/>
-        <v>0.99162860220620785</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>0.69569029585897646</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
-        <v>1.1013878566716493</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="2"/>
-        <v>0.5488422001954022</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ref="J32:J48" si="3">MIN(G32:I32)</f>
-        <v>0.5488422001954022</v>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q48" si="7">IF($L32=J32,1,0)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ref="A33:A48" si="4">A32+1</f>
+        <f t="shared" ref="A33:A48" si="8">A32+1</f>
         <v>3</v>
       </c>
       <c r="B33">
@@ -3480,666 +3561,1159 @@
         <v>1.46353</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96647147649860277</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9637725225994687</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.90541362322603569</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95436376432324588</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.204703695858643</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2352736192630145</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
-        <v>1.009825558751785</v>
-      </c>
-      <c r="J33">
         <f t="shared" si="3"/>
         <v>1.009825558751785</v>
       </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>1.009825558751785</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0.90541362322603569</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="B34">
         <f>B10</f>
         <v>2.0107499999999998</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:I36" si="5">C10/$B34</f>
+        <f t="shared" ref="C34:I36" si="9">C10/$B34</f>
         <v>1.1504761904761907</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.91344523187865234</v>
       </c>
       <c r="E34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.7936938953126943</v>
       </c>
       <c r="F34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0268208379957728</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.92473952505284107</v>
       </c>
       <c r="H34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.3124555514111651</v>
       </c>
       <c r="I34">
+        <f t="shared" si="9"/>
+        <v>0.74214099216710183</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>0.74214099216710183</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="5"/>
         <v>0.74214099216710183</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="3"/>
-        <v>0.74214099216710183</v>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="B35">
         <f>B11</f>
         <v>2.4941800000000001</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.1788162843098733</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.91440874355499602</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.87182160068639791</v>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99424660609899851</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.2181879415278769</v>
       </c>
       <c r="H35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4063499827598651</v>
       </c>
       <c r="I35">
+        <f t="shared" si="9"/>
+        <v>0.7714800054526938</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>0.7714800054526938</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="5"/>
         <v>0.7714800054526938</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="3"/>
-        <v>0.7714800054526938</v>
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="B36">
         <f>B12</f>
         <v>206.452</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.1082721407397363E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5450467905372677E-2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.31279619475713483</v>
       </c>
       <c r="F36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.94528510259043264</v>
       </c>
       <c r="G36">
+        <f t="shared" si="9"/>
+        <v>8.1682909344544981E-3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="9"/>
+        <v>1.7179005289365081E-2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="9"/>
+        <v>1.0744628291321954E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>8.1682909344544981E-3</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="5"/>
         <v>8.1682909344544981E-3</v>
       </c>
-      <c r="H36">
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:B46" si="10">B14</f>
+        <v>14.926</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:I46" si="11">C14/$B37</f>
+        <v>1.0068404127026664</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="11"/>
+        <v>1.0119857965965431</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="11"/>
+        <v>0.87744204743400778</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="11"/>
+        <v>1.0353611148331769</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="11"/>
+        <v>1.0172919737371031</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>1.3960605654562508</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="11"/>
+        <v>0.89319308589039259</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>0.89319308589039259</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="5"/>
-        <v>1.7179005289365081E-2</v>
-      </c>
-      <c r="I36">
+        <v>0.87744204743400778</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="10"/>
+        <v>1.94702</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="11"/>
+        <v>0.70820022393195758</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="11"/>
+        <v>1.0061684009409251</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="11"/>
+        <v>0.57345070928906738</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="11"/>
+        <v>1.0216844202935769</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="11"/>
+        <v>0.72098899857217702</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="11"/>
+        <v>1.1428439358609568</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="11"/>
+        <v>0.56208975768096892</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>0.56208975768096892</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="5"/>
-        <v>1.0744628291321954E-2</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="3"/>
-        <v>8.1682909344544981E-3</v>
+        <v>0.56208975768096892</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B37">
-        <f t="shared" ref="B37:B46" si="6">B14</f>
-        <v>14.926</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37:I46" si="7">C14/$B37</f>
-        <v>1.0068404127026664</v>
-      </c>
-      <c r="D37">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="10"/>
+        <v>7.9601800000000003</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="11"/>
+        <v>0.23219072935536633</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="11"/>
+        <v>0.32597127200641191</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="11"/>
+        <v>0.17616938310440214</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="11"/>
+        <v>1.0499687193003171</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="11"/>
+        <v>0.190283385551583</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="11"/>
+        <v>0.45586029461645339</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="11"/>
+        <v>0.16966450507400585</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>0.16966450507400585</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>0.16966450507400585</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="7"/>
-        <v>1.0119857965965431</v>
-      </c>
-      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="10"/>
+        <v>5.0080600000000004</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="11"/>
+        <v>0.50963646601678092</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="11"/>
+        <v>0.80986849199091049</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="11"/>
+        <v>0.38215995814746628</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="11"/>
+        <v>0.92453165497218481</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="11"/>
+        <v>0.47385215033366207</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="11"/>
+        <v>5.4505337396117461</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="11"/>
+        <v>576.90802426488494</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>0.47385215033366207</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>0.38215995814746628</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="7"/>
-        <v>0.87744204743400778</v>
-      </c>
-      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="10"/>
+        <v>15.2425</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="11"/>
+        <v>0.79761850090208297</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="11"/>
+        <v>0.87583401672953909</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="11"/>
+        <v>0.79910775791372812</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="11"/>
+        <v>0.9876660652780056</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="11"/>
+        <v>0.85857306872232253</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="11"/>
+        <v>173.2255207479088</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="11"/>
+        <v>217.19862227324916</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>0.85857306872232253</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="5"/>
+        <v>0.79761850090208297</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="7"/>
-        <v>1.0353611148331769</v>
-      </c>
-      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="10"/>
+        <v>38.549100000000003</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="11"/>
+        <v>1.0470750289890034</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="11"/>
+        <v>1.1243505036434054</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="11"/>
+        <v>0.90665411125032735</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="11"/>
+        <v>0.9922332817108569</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="11"/>
+        <v>1.0392408642484519</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="11"/>
+        <v>0.96001203659748202</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="11"/>
+        <v>0.98547566609855985</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>0.96001203659748202</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="5"/>
+        <v>0.90665411125032735</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="7"/>
-        <v>1.0172919737371031</v>
-      </c>
-      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="10"/>
+        <v>4.1474000000000002</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="11"/>
+        <v>0.39747311568693638</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="11"/>
+        <v>0.61987992477214637</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="11"/>
+        <v>0.40299464724887879</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="11"/>
+        <v>0.91805950716111295</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="11"/>
+        <v>0.50670058349809521</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="11"/>
+        <v>0.50444133674109082</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="11"/>
+        <v>0.4288662776679365</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>0.4288662776679365</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="5"/>
+        <v>0.39747311568693638</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="7"/>
-        <v>1.3960605654562508</v>
-      </c>
-      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="10"/>
+        <v>1.90096</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="11"/>
+        <v>1.1025692281794464</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="11"/>
+        <v>1.3337576803299385</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="11"/>
+        <v>1.8741530595067755</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="11"/>
+        <v>1.0492224981062199</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="11"/>
+        <v>1.0145505428835957</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="11"/>
+        <v>1.4735922902112617</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="11"/>
+        <v>1.9586261678309906</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>1.0145505428835957</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="5"/>
+        <v>1.0145505428835957</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <f t="shared" si="7"/>
-        <v>0.89319308589039259</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="3"/>
-        <v>0.89319308589039259</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="e">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="10"/>
+        <v>9.2313799999999997</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="11"/>
+        <v>1.0978315268139758</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="11"/>
+        <v>1.0149739258919035</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="11"/>
+        <v>0.90753278491406486</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="11"/>
+        <v>0.97549012173694505</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="11"/>
+        <v>0.97866841144010963</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="11"/>
+        <v>1.140587864436303</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="11"/>
+        <v>1.3033587610953077</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B38">
+        <v>0.97866841144010963</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="5"/>
+        <v>0.90753278491406486</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="6"/>
-        <v>1.94702</v>
-      </c>
-      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <f t="shared" si="7"/>
-        <v>0.70820022393195758</v>
-      </c>
-      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="10"/>
+        <v>14.654500000000001</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="11"/>
+        <v>0.27637926916646766</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="11"/>
+        <v>0.48971373980688526</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="11"/>
+        <v>0.33573032174417411</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="11"/>
+        <v>0.98049745811866662</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="11"/>
+        <v>0.30010099286908454</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="11"/>
+        <v>3.6323450134770892</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="11"/>
+        <v>0.34742707018322017</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>0.30010099286908454</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="5"/>
+        <v>0.27637926916646766</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <f t="shared" si="7"/>
-        <v>1.0061684009409251</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="7"/>
-        <v>0.57345070928906738</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="7"/>
-        <v>1.0216844202935769</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="7"/>
-        <v>0.72098899857217702</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="7"/>
-        <v>1.1428439358609568</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="7"/>
-        <v>0.56208975768096892</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="3"/>
-        <v>0.56208975768096892</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="6"/>
-        <v>7.9601800000000003</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="7"/>
-        <v>0.23219072935536633</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="7"/>
-        <v>0.32597127200641191</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="7"/>
-        <v>0.17616938310440214</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="7"/>
-        <v>1.0499687193003171</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="7"/>
-        <v>0.190283385551583</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="7"/>
-        <v>0.45586029461645339</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="7"/>
-        <v>0.16966450507400585</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="3"/>
-        <v>0.16966450507400585</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="6"/>
-        <v>5.0080600000000004</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="7"/>
-        <v>0.50963646601678092</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="7"/>
-        <v>0.80986849199091049</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="7"/>
-        <v>0.38215995814746628</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="7"/>
-        <v>0.92453165497218481</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="7"/>
-        <v>0.47385215033366207</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="7"/>
-        <v>5.4505337396117461</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="7"/>
-        <v>576.90802426488494</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="3"/>
-        <v>0.47385215033366207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="6"/>
-        <v>15.2425</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="7"/>
-        <v>0.79761850090208297</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="7"/>
-        <v>0.87583401672953909</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="7"/>
-        <v>0.79910775791372812</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="7"/>
-        <v>0.9876660652780056</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="7"/>
-        <v>0.85857306872232253</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="7"/>
-        <v>173.2255207479088</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="7"/>
-        <v>217.19862227324916</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="3"/>
-        <v>0.85857306872232253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="6"/>
-        <v>38.549100000000003</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="7"/>
-        <v>1.0470750289890034</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="7"/>
-        <v>1.1243505036434054</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="7"/>
-        <v>0.90665411125032735</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="7"/>
-        <v>0.9922332817108569</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="7"/>
-        <v>1.0392408642484519</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="7"/>
-        <v>0.96001203659748202</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="7"/>
-        <v>0.98547566609855985</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="3"/>
-        <v>0.96001203659748202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="6"/>
-        <v>4.1474000000000002</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="7"/>
-        <v>0.39747311568693638</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="7"/>
-        <v>0.61987992477214637</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="7"/>
-        <v>0.40299464724887879</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="7"/>
-        <v>0.91805950716111295</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="7"/>
-        <v>0.50670058349809521</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="7"/>
-        <v>0.50444133674109082</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="7"/>
-        <v>0.4288662776679365</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="3"/>
-        <v>0.4288662776679365</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="6"/>
-        <v>1.90096</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="7"/>
-        <v>1.1025692281794464</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="7"/>
-        <v>1.3337576803299385</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="7"/>
-        <v>1.8741530595067755</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="7"/>
-        <v>1.0492224981062199</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="7"/>
-        <v>1.0145505428835957</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="7"/>
-        <v>1.4735922902112617</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="7"/>
-        <v>1.9586261678309906</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="3"/>
-        <v>1.0145505428835957</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="6"/>
-        <v>9.2313799999999997</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="7"/>
-        <v>1.0978315268139758</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="7"/>
-        <v>1.0149739258919035</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="7"/>
-        <v>0.90753278491406486</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="7"/>
-        <v>0.97549012173694505</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="7"/>
-        <v>0.97866841144010963</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="7"/>
-        <v>1.140587864436303</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="7"/>
-        <v>1.3033587610953077</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="3"/>
-        <v>0.97866841144010963</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="6"/>
-        <v>14.654500000000001</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="7"/>
-        <v>0.27637926916646766</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="7"/>
-        <v>0.48971373980688526</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="7"/>
-        <v>0.33573032174417411</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="7"/>
-        <v>0.98049745811866662</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="7"/>
-        <v>0.30010099286908454</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="7"/>
-        <v>3.6323450134770892</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="7"/>
-        <v>0.34742707018322017</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="3"/>
-        <v>0.30010099286908454</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="8"/>
+        <v>17</v>
       </c>
       <c r="B47">
         <f>B25</f>
         <v>16.1813</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:I48" si="8">C25/$B47</f>
+        <f t="shared" ref="C47:I48" si="12">C25/$B47</f>
         <v>0.62211936000197765</v>
       </c>
       <c r="D47">
+        <f t="shared" si="12"/>
+        <v>0.83875213981571328</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="12"/>
+        <v>0.641234017044366</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="12"/>
+        <v>0.83792402340973837</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="12"/>
+        <v>0.65025059791240503</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="12"/>
+        <v>2.1365156075222633</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="12"/>
+        <v>1.9342389054031506</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>0.65025059791240503</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="5"/>
+        <v>0.62211936000197765</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
         <f t="shared" si="8"/>
-        <v>0.83875213981571328</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="8"/>
-        <v>0.641234017044366</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="8"/>
-        <v>0.83792402340973837</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="8"/>
-        <v>0.65025059791240503</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="8"/>
-        <v>2.1365156075222633</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="8"/>
-        <v>1.9342389054031506</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="3"/>
-        <v>0.65025059791240503</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>18</v>
       </c>
       <c r="B48">
         <f>B26</f>
         <v>4.7343400000000004</v>
       </c>
       <c r="C48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.50301837214902179</v>
       </c>
       <c r="D48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.2635024100508201</v>
       </c>
       <c r="E48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.47802227976866885</v>
       </c>
       <c r="F48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.80690233485554475</v>
       </c>
       <c r="G48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.54991825682143647</v>
       </c>
       <c r="H48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.68013070459662794</v>
       </c>
       <c r="I48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.51006264864796358</v>
       </c>
       <c r="J48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.51006264864796358</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="5"/>
+        <v>0.47802227976866885</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <f>AVERAGE(B31:B48)</f>
+        <v>19.525191666666665</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:J49" si="13">AVERAGE(C31:C48)</f>
+        <v>0.71571734526477537</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="13"/>
+        <v>0.99234805664706316</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="13"/>
+        <v>0.68730860493565893</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="13"/>
+        <v>0.97577212918729705</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="13"/>
+        <v>0.88431445329433656</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="13"/>
+        <v>11.074891329138254</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="13"/>
+        <v>44.819490910468403</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="13"/>
+        <v>0.63047193017154601</v>
+      </c>
+      <c r="L49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49">
+        <f>AVERAGE(M31:M48)*100</f>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="N49">
+        <f t="shared" ref="N49:Q49" si="14">AVERAGE(N31:N48)*100</f>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="14"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="14"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="R49">
+        <f>SUM(M49:Q49)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <f>B49*1000</f>
+        <v>19525.191666666666</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:J50" si="15">C49*1000</f>
+        <v>715.71734526477542</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="15"/>
+        <v>992.34805664706312</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="15"/>
+        <v>687.30860493565888</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="15"/>
+        <v>975.77212918729708</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="15"/>
+        <v>884.31445329433654</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="15"/>
+        <v>11074.891329138254</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="15"/>
+        <v>44819.490910468405</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="15"/>
+        <v>630.47193017154598</v>
       </c>
     </row>
   </sheetData>
